--- a/data/BG_master.xlsx
+++ b/data/BG_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxwell\Documents\Python\points-of-dispense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F857CCC-AA75-474A-92EF-C4687025C680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B447379-C486-42A5-9035-6487B13386F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C4C8DCC-4B4D-42EF-A8C6-D6E84449C97A}"/>
   </bookViews>
@@ -3729,7 +3729,9 @@
   <dimension ref="A1:N1101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="P370" sqref="P370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20111,7 +20113,7 @@
         <v>930</v>
       </c>
       <c r="M372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N372">
         <v>0</v>
@@ -21123,7 +21125,7 @@
         <v>677</v>
       </c>
       <c r="M395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N395">
         <v>0</v>
@@ -39647,7 +39649,7 @@
         <v>498</v>
       </c>
       <c r="M816">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N816">
         <v>0</v>
@@ -51603,7 +51605,7 @@
         <v>-79.895745000000005</v>
       </c>
       <c r="I1088">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J1088">
         <v>0</v>
@@ -51615,7 +51617,7 @@
         <v>0</v>
       </c>
       <c r="M1088">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N1088">
         <v>0</v>
